--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Remittance_Name</t>
   </si>
@@ -74,22 +75,31 @@
     <t>Automation 3</t>
   </si>
   <si>
-    <t>1231</t>
-  </si>
-  <si>
     <t>1232</t>
   </si>
   <si>
     <t>1233</t>
   </si>
   <si>
-    <t>1211</t>
-  </si>
-  <si>
     <t>1212</t>
   </si>
   <si>
     <t>1213</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Dealer Suspense</t>
+  </si>
+  <si>
+    <t>Paper Remit</t>
   </si>
 </sst>
 </file>
@@ -411,7 +421,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,8 +430,9 @@
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -460,54 +471,98 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Remittance_Name</t>
   </si>
@@ -78,13 +78,7 @@
     <t>1232</t>
   </si>
   <si>
-    <t>1233</t>
-  </si>
-  <si>
     <t>1212</t>
-  </si>
-  <si>
-    <t>1213</t>
   </si>
   <si>
     <t>Standard</t>
@@ -421,7 +415,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,48 +466,44 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
@@ -521,34 +511,30 @@
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="TC24" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Remittance_Name</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Paper Remit</t>
+  </si>
+  <si>
+    <t>Old_PriceSheet</t>
+  </si>
+  <si>
+    <t>New_PriceSheet</t>
+  </si>
+  <si>
+    <t>SNE</t>
+  </si>
+  <si>
+    <t>SNF</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -543,12 +555,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="5" r:id="rId1"/>
     <sheet name="TC24" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -555,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,7 +563,7 @@
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -575,7 +571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -583,6 +579,7 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/automation/Repository/Underwriting.xlsx
+++ b/automation/Repository/Underwriting.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="5" r:id="rId1"/>
-    <sheet name="TC24" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Remittance_Name</t>
   </si>
@@ -90,18 +89,6 @@
   </si>
   <si>
     <t>Paper Remit</t>
-  </si>
-  <si>
-    <t>Old_PriceSheet</t>
-  </si>
-  <si>
-    <t>New_PriceSheet</t>
-  </si>
-  <si>
-    <t>SNE</t>
-  </si>
-  <si>
-    <t>SNF</t>
   </si>
 </sst>
 </file>
@@ -422,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,6 +510,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -547,40 +537,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>